--- a/ig/messaging/all-profiles.xlsx
+++ b/ig/messaging/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-28T07:13:40+02:00</t>
+    <t>2024-06-28T10:59:26+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -484,7 +484,7 @@
   </si>
   <si>
     <t>bdl-1:total only when a search or history {total.empty() or (type = 'searchset') or (type = 'history')}
-bdl-2:entry.search only when a search {entry.search.empty() or (type = 'searchset')}bdl-3:entry.request mandatory for batch/transaction/history, otherwise prohibited {entry.all(request.exists() = (%resource.type = 'batch' or %resource.type = 'transaction' or %resource.type = 'history'))}bdl-4:entry.response mandatory for batch-response/transaction-response/history, otherwise prohibited {entry.all(response.exists() = (%resource.type = 'batch-response' or %resource.type = 'transaction-response' or %resource.type = 'history'))}bdl-7:FullUrl must be unique in a bundle, or else entries with the same fullUrl must have different meta.versionId (except in history bundles) {(type = 'history') or entry.where(fullUrl.exists()).select(fullUrl&amp;resource.meta.versionId).isDistinct()}bdl-9:A document must have an identifier with a system and a value {type = 'document' implies (identifier.system.exists() and identifier.value.exists())}bdl-10:A document must have a date {type = 'document' implies (timestamp.hasValue())}bdl-11:A document must have a Composition as the first resource {type = 'document' implies entry.first().resource.is(Composition)}bdl-12:A message must have a MessageHeader as the first resource {type = 'message' implies entry.first().resource.is(MessageHeader)}medcom-messaging-1:The MessageHeader resource shall conform to medcom-messaging-messageHeader profile {entry[0].resource.conformsTo('http://medcomfhir.dk/ig/messaging/StructureDefinition/medcom-messaging-messageHeader')}medcom-messaging-2:There shall be at least one Provenance resource in a MedCom message {entry.resource.ofType(Provenance).exists()}medcom-messaging-3:All Provenance resources shall conform to the medcom-messaging-provenance profile {entry.resource.ofType(Provenance).conformsTo('http://medcomfhir.dk/ig/messaging/StructureDefinition/medcom-messaging-provenance').allTrue()}</t>
+bdl-2:entry.search only when a search {entry.search.empty() or (type = 'searchset')}bdl-3:entry.request mandatory for batch/transaction/history, otherwise prohibited {entry.all(request.exists() = (%resource.type = 'batch' or %resource.type = 'transaction' or %resource.type = 'history'))}bdl-4:entry.response mandatory for batch-response/transaction-response/history, otherwise prohibited {entry.all(response.exists() = (%resource.type = 'batch-response' or %resource.type = 'transaction-response' or %resource.type = 'history'))}bdl-7:FullUrl must be unique in a bundle, or else entries with the same fullUrl must have different meta.versionId (except in history bundles) {(type = 'history') or entry.where(fullUrl.exists()).select(fullUrl&amp;resource.meta.versionId).isDistinct()}bdl-9:A document must have an identifier with a system and a value {type = 'document' implies (identifier.system.exists() and identifier.value.exists())}bdl-10:A document must have a date {type = 'document' implies (timestamp.hasValue())}bdl-11:A document must have a Composition as the first resource {type = 'document' implies entry.first().resource.is(Composition)}bdl-12:A message must have a MessageHeader as the first resource {type = 'message' implies entry.first().resource.is(MessageHeader)}medcom-messaging-1:The MessageHeader resource shall conform to medcom-messaging-messageHeader profile {entry[0].resource.conformsTo('http://medcomfhir.dk/ig/messaging/StructureDefinition/medcom-messaging-messageHeader')}medcom-messaging-2:There shall be at least one Provenance resource in a MedCom message {entry.resource.ofType(Provenance).exists()}</t>
   </si>
   <si>
     <t>Bundle.id</t>

--- a/ig/messaging/all-profiles.xlsx
+++ b/ig/messaging/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.2.0</t>
+    <t>2.2.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-28T10:59:26+02:00</t>
+    <t>2024-11-07T08:12:37+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/messaging/all-profiles.xlsx
+++ b/ig/messaging/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.2.1</t>
+    <t>2.2.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-07T08:12:37+01:00</t>
+    <t>2025-05-13T08:00:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -748,7 +748,7 @@
 * Results from operations might involve resources that are not identified.</t>
   </si>
   <si>
-    <t>fullUrl might not be [unique in the context of a resource](bundle.html#bundle-unique). Note that since [FHIR resources do not need to be served through the FHIR API](http://hl7.org/fhir/R4/references.html), the fullURL might be a URN or an absolute URL that does not end with the logical id of the resource (Resource.id). However, but if the fullUrl does look like a RESTful server URL (e.g. meets the [regex](http://hl7.org/fhir/R4/references.html#regex), then the 'id' portion of the fullUrl SHALL end with the Resource.id.
+    <t>fullUrl might not be [unique in the context of a resource](http://hl7.org/fhir/R4/bundle.html#bundle-unique). Note that since [FHIR resources do not need to be served through the FHIR API](http://hl7.org/fhir/R4/references.html), the fullURL might be a URN or an absolute URL that does not end with the logical id of the resource (Resource.id). However, but if the fullUrl does look like a RESTful server URL (e.g. meets the [regex](http://hl7.org/fhir/R4/references.html#regex), then the 'id' portion of the fullUrl SHALL end with the Resource.id.
 Note that the fullUrl is not the same as the canonical URL - it's an absolute url for an endpoint serving the resource (these will happen to have the same value on the canonical server for the resource with the canonical URL).</t>
   </si>
   <si>
@@ -1116,7 +1116,7 @@
     <t>Code that identifies the event this message represents and connects it with its definition. Events defined as part of the FHIR specification have the system value "http://terminology.hl7.org/CodeSystem/message-events".  Alternatively uri to the EventDefinition.</t>
   </si>
   <si>
-    <t>The time of the event will be found in the focus resource. The time of the message will be found in [Bundle.timestamp](bundle-definitions.html#Bundle.timestamp).</t>
+    <t>The time of the event will be found in the focus resource. The time of the message will be found in [Bundle.timestamp](http://hl7.org/fhir/R4/bundle-definitions.html#Bundle.timestamp).</t>
   </si>
   <si>
     <t>Drives the behavior associated with this message.</t>
@@ -2780,7 +2780,7 @@
     <t>Canonical reference to a GraphDefinition</t>
   </si>
   <si>
-    <t>Canonical reference to a GraphDefinition. If a URL is provided, it is the canonical reference to a [GraphDefinition](graphdefinition.html) that it controls what resources are to be added to the bundle when building the document. The GraphDefinition can also specify profiles that apply to the various resources.</t>
+    <t>Canonical reference to a GraphDefinition. If a URL is provided, it is the canonical reference to a [GraphDefinition](http://hl7.org/fhir/R4/graphdefinition.html) that it controls what resources are to be added to the bundle when building the document. The GraphDefinition can also specify profiles that apply to the various resources.</t>
   </si>
   <si>
     <t>medcom-messaging-messagedefinition</t>
@@ -2880,7 +2880,7 @@
 </t>
   </si>
   <si>
-    <t>An identifier intended for computation</t>
+    <t>GLN identifier, [DA] EAN-nummer</t>
   </si>
   <si>
     <t>An identifier - identifies some entity uniquely and unambiguously. Typically this is used for business identifiers.</t>
@@ -5561,17 +5561,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="41.78125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="66.40625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="55.1171875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="24.67578125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="38.81640625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="36.8671875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="58.6875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="48.6953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="21.47265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="34.21875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="12.3828125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -5580,21 +5580,21 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="98.1796875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="38.8125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="163.2734375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="93.828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="26.125" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.98828125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="42.36328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.5" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="86.1796875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="32.7734375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="144.1953125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="81.02734375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="23.56640625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.7578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="37.125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.046875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
   </cols>
   <sheetData>
